--- a/excels/materiales/08TuberiaPotable.xlsx
+++ b/excels/materiales/08TuberiaPotable.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/excels/materiales/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="22720" windowHeight="13460"/>
+    <workbookView xWindow="360" yWindow="465" windowWidth="19320" windowHeight="13455"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -197,9 +192,6 @@
     <t>Rotoplas tanq para agua 2500</t>
   </si>
   <si>
-    <t>Pvc union lisA 12mm 1/2''</t>
-  </si>
-  <si>
     <t>Union polietileno 12mm 1/2"</t>
   </si>
   <si>
@@ -246,13 +238,88 @@
   </si>
   <si>
     <t>Cpvc Te 12mm 1/2"</t>
+  </si>
+  <si>
+    <t>Desague lavamanos push con rebalse BL-1065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descuento </t>
+  </si>
+  <si>
+    <t>Pvc Te SCH40 18MM 3/4" BL CAM/CEM</t>
+  </si>
+  <si>
+    <t>Pvc codo SCH40 18MM 3/4" BL CAM/CEM</t>
+  </si>
+  <si>
+    <t>Gaza sin fin acero inox 8508 25MM 1"</t>
+  </si>
+  <si>
+    <t>Inasa desague lavamanos push metal</t>
+  </si>
+  <si>
+    <t>SF008-3 adaptador hule p/sifon 1 1/2" BL CAM/CEM</t>
+  </si>
+  <si>
+    <t>PVC codo 45 SCH40 38MM 1 1/2" BL CAM/CEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pvc union lisA 12mm 1/2'' </t>
+  </si>
+  <si>
+    <t>Pvc union lisa SCH40 100 mm 4"BL CAM/CEM</t>
+  </si>
+  <si>
+    <t>PVC codo 90 DWV S32,5 38MM 11/2" GR CAM/CEM</t>
+  </si>
+  <si>
+    <t>PVC adaptador hembra SCH40 12MM 1/2" BL CAM/CEM</t>
+  </si>
+  <si>
+    <t>EMT caja cuadrada 4x4x21/8 (1/2", 3/4")</t>
+  </si>
+  <si>
+    <t>Tapa cuadrada 4x4 C/KO1/2 TP 478UL</t>
+  </si>
+  <si>
+    <t>Brass Craft llave control 1/2x1/2 escuadra 03301C</t>
+  </si>
+  <si>
+    <t>HG union sencilla 12MM 1/2"</t>
+  </si>
+  <si>
+    <t>3M cinta adhesiva doble cara 3/4 x metro</t>
+  </si>
+  <si>
+    <t>Eagle cinta adhesiva 25MM X 10 mts #66159 doble cara</t>
+  </si>
+  <si>
+    <t>Eagle cinta adhesiva 15MM X 10 mts #66158 doble cara</t>
+  </si>
+  <si>
+    <t>Amanco PVC tubo SDR17 50MM 2"X6m BL CAM/CEM</t>
+  </si>
+  <si>
+    <t>Pvc codo 90 SCH40 12MM 1/2" BL CAM/CEM</t>
+  </si>
+  <si>
+    <t>Pvc codo 45 SCH40 12MM 1/2" BL CAM/CEM</t>
+  </si>
+  <si>
+    <t>Pvc adaptador macho SCH40 12MM 1/2" BL CAM/CEM</t>
+  </si>
+  <si>
+    <t>Pvc codo 90 SCH40 50MM 2"BL CAM/CEM</t>
+  </si>
+  <si>
+    <t>Pvc tubo presion SCH40 12MM 1/2"X6m BL CAM/CEM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,53 +804,54 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -838,7 +906,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,7 +941,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1081,28 +1149,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="P88" sqref="P88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,8 +1202,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="B2" s="1">
         <v>8001</v>
       </c>
@@ -1142,13 +1214,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1">
         <v>500</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1163,7 +1235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" s="1">
         <v>8002</v>
       </c>
@@ -1171,13 +1243,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1">
         <v>600</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1192,7 +1264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" s="1">
         <v>8003</v>
       </c>
@@ -1200,13 +1272,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1">
         <v>300</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1">
         <v>13</v>
@@ -1218,7 +1290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" s="1">
         <v>8004</v>
       </c>
@@ -1226,13 +1298,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1">
         <v>1203</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1247,7 +1319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" s="1">
         <v>8005</v>
       </c>
@@ -1255,13 +1327,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1">
         <v>455.75</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1276,7 +1348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="B7" s="1">
         <v>8006</v>
       </c>
@@ -1284,13 +1356,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1">
         <v>433.63</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="1">
         <v>13</v>
@@ -1302,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="B8" s="1">
         <v>8007</v>
       </c>
@@ -1310,13 +1382,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1">
         <v>278.75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1331,7 +1403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="B9" s="1">
         <v>8008</v>
       </c>
@@ -1339,13 +1411,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1">
         <v>433.63</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1360,7 +1432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="B10" s="1">
         <v>8009</v>
       </c>
@@ -1368,13 +1440,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1">
         <v>110.62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="1">
         <v>13</v>
@@ -1386,7 +1458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="B11" s="1">
         <v>8010</v>
       </c>
@@ -1394,13 +1466,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -1415,7 +1487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="B12" s="1">
         <v>8011</v>
       </c>
@@ -1444,7 +1516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="B13" s="1">
         <v>8012</v>
       </c>
@@ -1473,7 +1545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14" s="1">
         <v>8013</v>
       </c>
@@ -1502,7 +1574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15" s="1">
         <v>8014</v>
       </c>
@@ -1531,7 +1603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="B16" s="1">
         <v>8015</v>
       </c>
@@ -1560,7 +1632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="1">
         <v>8016</v>
       </c>
@@ -1589,7 +1661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="1">
         <v>8017</v>
       </c>
@@ -1618,7 +1690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="1">
         <v>8018</v>
       </c>
@@ -1647,7 +1719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="1">
         <v>8019</v>
       </c>
@@ -1676,7 +1748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="B21" s="1">
         <v>8020</v>
       </c>
@@ -1705,7 +1777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="B22" s="1">
         <v>8021</v>
       </c>
@@ -1734,7 +1806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="B23" s="1">
         <v>8022</v>
       </c>
@@ -1763,7 +1835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="B24" s="1">
         <v>8023</v>
       </c>
@@ -1792,7 +1864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="B25" s="1">
         <v>8024</v>
       </c>
@@ -1821,7 +1893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10">
       <c r="B26" s="1">
         <v>8025</v>
       </c>
@@ -1850,7 +1922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10">
       <c r="B27" s="1">
         <v>8026</v>
       </c>
@@ -1876,7 +1948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10">
       <c r="B28" s="1">
         <v>8027</v>
       </c>
@@ -1905,7 +1977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10">
       <c r="B29" s="1">
         <v>8028</v>
       </c>
@@ -1934,7 +2006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="B30" s="1">
         <v>8029</v>
       </c>
@@ -1963,7 +2035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10">
       <c r="B31" s="1">
         <v>8030</v>
       </c>
@@ -1992,7 +2064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10">
       <c r="B32" s="1">
         <v>8031</v>
       </c>
@@ -2021,7 +2093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10">
       <c r="B33" s="1">
         <v>8032</v>
       </c>
@@ -2050,7 +2122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10">
       <c r="B34" s="1">
         <v>8033</v>
       </c>
@@ -2079,7 +2151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10">
       <c r="B35" s="1">
         <v>8034</v>
       </c>
@@ -2108,7 +2180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10">
       <c r="B36" s="1">
         <v>8035</v>
       </c>
@@ -2137,7 +2209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10">
       <c r="B37" s="1">
         <v>8036</v>
       </c>
@@ -2166,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10">
       <c r="B38" s="1">
         <v>8037</v>
       </c>
@@ -2195,7 +2267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10">
       <c r="B39" s="1">
         <v>8038</v>
       </c>
@@ -2224,7 +2296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10">
       <c r="B40" s="1">
         <v>8039</v>
       </c>
@@ -2253,7 +2325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10">
       <c r="B41" s="1">
         <v>8040</v>
       </c>
@@ -2282,7 +2354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10">
       <c r="B42" s="1">
         <v>8041</v>
       </c>
@@ -2311,7 +2383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10">
       <c r="B43" s="1">
         <v>8042</v>
       </c>
@@ -2340,7 +2412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10">
       <c r="B44" s="1">
         <v>8043</v>
       </c>
@@ -2369,7 +2441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10">
       <c r="B45" s="1">
         <v>8044</v>
       </c>
@@ -2398,7 +2470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10">
       <c r="B46" s="1">
         <v>8045</v>
       </c>
@@ -2427,7 +2499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10">
       <c r="B47" s="1">
         <v>8046</v>
       </c>
@@ -2456,7 +2528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10">
       <c r="B48" s="1">
         <v>8047</v>
       </c>
@@ -2485,7 +2557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12">
       <c r="B49" s="1">
         <v>8048</v>
       </c>
@@ -2514,7 +2586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12">
       <c r="B50" s="1">
         <v>8049</v>
       </c>
@@ -2543,7 +2615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12">
       <c r="B51" s="1">
         <v>8050</v>
       </c>
@@ -2572,7 +2644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12">
       <c r="B52" s="1">
         <v>8051</v>
       </c>
@@ -2601,7 +2673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12">
       <c r="B53" s="1">
         <v>8052</v>
       </c>
@@ -2630,7 +2702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12">
       <c r="B54" s="1">
         <v>8053</v>
       </c>
@@ -2659,7 +2731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12">
       <c r="B55" s="1">
         <v>8054</v>
       </c>
@@ -2688,7 +2760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12">
       <c r="B56" s="1">
         <v>8055</v>
       </c>
@@ -2717,7 +2789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12">
       <c r="B57" s="1">
         <v>8056</v>
       </c>
@@ -2746,7 +2818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12">
       <c r="B58" s="1">
         <v>8057</v>
       </c>
@@ -2775,7 +2847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12">
       <c r="B59" s="1">
         <v>8058</v>
       </c>
@@ -2804,7 +2876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12">
       <c r="B60" s="1">
         <v>8059</v>
       </c>
@@ -2833,7 +2905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12">
       <c r="B61" s="1">
         <v>8060</v>
       </c>
@@ -2841,7 +2913,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E61" s="1">
         <v>80.53</v>
@@ -2861,8 +2933,11 @@
       <c r="J61" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L61" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
       <c r="B62" s="1">
         <v>8061</v>
       </c>
@@ -2870,7 +2945,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E62" s="1">
         <v>215</v>
@@ -2891,7 +2966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12">
       <c r="B63" s="1">
         <v>8062</v>
       </c>
@@ -2899,7 +2974,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E63" s="1">
         <v>4331.8599999999997</v>
@@ -2917,7 +2992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12">
       <c r="B64" s="1">
         <v>8063</v>
       </c>
@@ -2925,7 +3000,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E64" s="1">
         <v>6035</v>
@@ -2946,7 +3021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12">
       <c r="B65" s="1">
         <v>8064</v>
       </c>
@@ -2954,7 +3029,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" s="1">
         <v>2176.9899999999998</v>
@@ -2975,7 +3050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12">
       <c r="B66" s="1">
         <v>8065</v>
       </c>
@@ -2983,7 +3058,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E66" s="1">
         <v>2132.7399999999998</v>
@@ -2999,6 +3074,673 @@
       </c>
       <c r="J66" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="1">
+        <v>8066</v>
+      </c>
+      <c r="C67" s="1">
+        <v>66</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="1">
+        <v>11252.21</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H67" s="1">
+        <v>13</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1">
+        <v>8</v>
+      </c>
+      <c r="L67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="1">
+        <v>8067</v>
+      </c>
+      <c r="C68" s="1">
+        <v>67</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" s="1">
+        <v>221.24</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" s="1">
+        <v>13</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1">
+        <v>8</v>
+      </c>
+      <c r="L68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="1">
+        <v>8068</v>
+      </c>
+      <c r="C69" s="1">
+        <v>68</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="1">
+        <v>203.54</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H69" s="1">
+        <v>13</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1">
+        <v>8</v>
+      </c>
+      <c r="L69" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="1">
+        <v>8069</v>
+      </c>
+      <c r="C70" s="1">
+        <v>69</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="1">
+        <v>508.85</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" s="1">
+        <v>13</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1">
+        <v>8</v>
+      </c>
+      <c r="L70" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71" s="1">
+        <v>8070</v>
+      </c>
+      <c r="C71" s="1">
+        <v>70</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="1">
+        <v>7623.89</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="1">
+        <v>13</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1">
+        <v>8</v>
+      </c>
+      <c r="L71" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="1">
+        <v>8071</v>
+      </c>
+      <c r="C72" s="1">
+        <v>71</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" s="1">
+        <v>584.07000000000005</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H72" s="1">
+        <v>13</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+      <c r="J72" s="1">
+        <v>8</v>
+      </c>
+      <c r="L72" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="1">
+        <v>8072</v>
+      </c>
+      <c r="C73" s="1">
+        <v>72</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1070.8</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H73" s="1">
+        <v>13</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1">
+        <v>8</v>
+      </c>
+      <c r="L73" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="1">
+        <v>8073</v>
+      </c>
+      <c r="C74" s="1">
+        <v>73</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="1">
+        <v>4176.99</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" s="1">
+        <v>13</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1">
+        <v>8</v>
+      </c>
+      <c r="L74" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="1">
+        <v>8074</v>
+      </c>
+      <c r="C75" s="1">
+        <v>74</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="1">
+        <v>500</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H75" s="1">
+        <v>13</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>8</v>
+      </c>
+      <c r="L75" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="1">
+        <v>8075</v>
+      </c>
+      <c r="C76" s="1">
+        <v>75</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" s="1">
+        <v>172.57</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H76" s="1">
+        <v>13</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1">
+        <v>8</v>
+      </c>
+      <c r="L76" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="1">
+        <v>8076</v>
+      </c>
+      <c r="C77" s="1">
+        <v>76</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1203.54</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H77" s="1">
+        <v>13</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>8</v>
+      </c>
+      <c r="L77" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="1">
+        <v>8077</v>
+      </c>
+      <c r="C78" s="1">
+        <v>77</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="1">
+        <v>256.64</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H78" s="1">
+        <v>13</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1">
+        <v>8</v>
+      </c>
+      <c r="L78" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="1">
+        <v>8078</v>
+      </c>
+      <c r="C79" s="1">
+        <v>78</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="1">
+        <v>3942.48</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="1">
+        <v>13</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1">
+        <v>8</v>
+      </c>
+      <c r="L79" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="1">
+        <v>8079</v>
+      </c>
+      <c r="C80" s="1">
+        <v>79</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="1">
+        <v>119.47</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" s="1">
+        <v>13</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+      <c r="J80" s="1">
+        <v>8</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12">
+      <c r="B81" s="1">
+        <v>8080</v>
+      </c>
+      <c r="C81" s="1">
+        <v>80</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="1">
+        <v>185.84</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H81" s="1">
+        <v>13</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1</v>
+      </c>
+      <c r="J81" s="1">
+        <v>8</v>
+      </c>
+      <c r="L81" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="B82" s="1">
+        <v>8081</v>
+      </c>
+      <c r="C82" s="1">
+        <v>81</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" s="1">
+        <v>84.07</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" s="1">
+        <v>13</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+      <c r="J82" s="1">
+        <v>8</v>
+      </c>
+      <c r="L82" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
+      <c r="B83" s="1">
+        <v>8082</v>
+      </c>
+      <c r="C83" s="1">
+        <v>82</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" s="1">
+        <v>305.31</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="1">
+        <v>13</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>8</v>
+      </c>
+      <c r="L83" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84" s="1">
+        <v>8083</v>
+      </c>
+      <c r="C84" s="1">
+        <v>83</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1402.65</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H84" s="1">
+        <v>13</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+      <c r="J84" s="1">
+        <v>8</v>
+      </c>
+      <c r="L84" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="B85" s="1">
+        <v>8084</v>
+      </c>
+      <c r="C85" s="1">
+        <v>84</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1619.47</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H85" s="1">
+        <v>13</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1">
+        <v>8</v>
+      </c>
+      <c r="L85" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86" s="1">
+        <v>8085</v>
+      </c>
+      <c r="C86" s="1">
+        <v>85</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="1">
+        <v>4654.87</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="1">
+        <v>13</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>8</v>
+      </c>
+      <c r="L86" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87" s="1">
+        <v>8086</v>
+      </c>
+      <c r="C87" s="1">
+        <v>86</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="1">
+        <v>2924.78</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="1">
+        <v>13</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+      <c r="J87" s="1">
+        <v>8</v>
+      </c>
+      <c r="L87" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="1">
+        <v>8087</v>
+      </c>
+      <c r="C88" s="1">
+        <v>87</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="1">
+        <v>18486.73</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H88" s="1">
+        <v>13</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+      <c r="J88" s="1">
+        <v>8</v>
+      </c>
+      <c r="L88" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="B89" s="1">
+        <v>8088</v>
+      </c>
+      <c r="C89" s="1">
+        <v>88</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" s="1">
+        <v>24500</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H89" s="1">
+        <v>13</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1">
+        <v>8</v>
+      </c>
+      <c r="L89" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/excels/materiales/08TuberiaPotable.xlsx
+++ b/excels/materiales/08TuberiaPotable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/excels/materiales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/materiales/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="25040" windowHeight="19600"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="19320" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="167">
   <si>
     <t>id</t>
   </si>
@@ -513,6 +513,18 @@
   </si>
   <si>
     <t>18486.73</t>
+  </si>
+  <si>
+    <t>Lanco cemento pvc Wet Dry 1/4 gl</t>
+  </si>
+  <si>
+    <t>Lanco Silicon Flex blanco</t>
+  </si>
+  <si>
+    <t>Lanco Silicon Flex transparente</t>
+  </si>
+  <si>
+    <t>Xilo acido muriatico galon</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1035,7 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1032,6 +1044,15 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1374,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1386,11 +1407,9 @@
     <col min="3" max="3" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="8" customWidth="1"/>
+    <col min="8" max="10" width="10.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1410,10 +1429,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1445,10 +1464,10 @@
       <c r="E2" s="4">
         <v>500</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4">
@@ -1480,10 +1499,10 @@
       <c r="E3" s="4">
         <v>600</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4">
@@ -1515,10 +1534,10 @@
       <c r="E4" s="4">
         <v>300</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4">
@@ -1550,10 +1569,10 @@
       <c r="E5" s="4">
         <v>1203</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="4">
@@ -1585,10 +1604,10 @@
       <c r="E6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="4">
@@ -1620,10 +1639,10 @@
       <c r="E7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="4">
@@ -1655,10 +1674,10 @@
       <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="4">
@@ -1690,10 +1709,10 @@
       <c r="E9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="4">
@@ -1725,10 +1744,10 @@
       <c r="E10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="4">
@@ -1760,10 +1779,10 @@
       <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="4">
@@ -1795,10 +1814,10 @@
       <c r="E12" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="4">
@@ -1830,10 +1849,10 @@
       <c r="E13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="4">
@@ -1865,10 +1884,10 @@
       <c r="E14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="4">
@@ -1900,10 +1919,10 @@
       <c r="E15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="4">
@@ -1935,10 +1954,10 @@
       <c r="E16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="4">
@@ -1970,10 +1989,10 @@
       <c r="E17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="4">
@@ -2005,10 +2024,10 @@
       <c r="E18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="4">
@@ -2040,10 +2059,10 @@
       <c r="E19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="4">
@@ -2075,10 +2094,10 @@
       <c r="E20" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="4">
@@ -2110,10 +2129,10 @@
       <c r="E21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="F21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="4">
@@ -2145,10 +2164,10 @@
       <c r="E22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="4">
@@ -2180,10 +2199,10 @@
       <c r="E23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="4">
@@ -2215,10 +2234,10 @@
       <c r="E24" s="4">
         <v>14170</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="4">
@@ -2250,10 +2269,10 @@
       <c r="E25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="F25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="4">
@@ -2285,10 +2304,10 @@
       <c r="E26" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="4">
@@ -2318,10 +2337,10 @@
         <v>28</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="F27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="4">
@@ -2353,10 +2372,10 @@
       <c r="E28" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="F28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="4">
@@ -2388,10 +2407,10 @@
       <c r="E29" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="F29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="4">
@@ -2423,10 +2442,10 @@
       <c r="E30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="4">
@@ -2458,10 +2477,10 @@
       <c r="E31" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="4">
@@ -2493,10 +2512,10 @@
       <c r="E32" s="4">
         <v>500</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="4">
@@ -2528,10 +2547,10 @@
       <c r="E33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="4">
@@ -2563,10 +2582,10 @@
       <c r="E34" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="F34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="4">
@@ -2598,10 +2617,10 @@
       <c r="E35" s="4">
         <v>500</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="F35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="4">
@@ -2633,10 +2652,10 @@
       <c r="E36" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="F36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="4">
@@ -2668,10 +2687,10 @@
       <c r="E37" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="F37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="4">
@@ -2703,10 +2722,10 @@
       <c r="E38" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="F38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="4">
@@ -2738,10 +2757,10 @@
       <c r="E39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="F39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="4">
@@ -2773,10 +2792,10 @@
       <c r="E40" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="F40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="4">
@@ -2808,10 +2827,10 @@
       <c r="E41" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="F41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="4">
@@ -2843,10 +2862,10 @@
       <c r="E42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="F42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H42" s="4">
@@ -2878,10 +2897,10 @@
       <c r="E43" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="F43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="4">
@@ -2913,10 +2932,10 @@
       <c r="E44" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="F44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="4">
@@ -2948,10 +2967,10 @@
       <c r="E45" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="F45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="4">
@@ -2983,10 +3002,10 @@
       <c r="E46" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="4" t="s">
+      <c r="F46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="4">
@@ -3018,10 +3037,10 @@
       <c r="E47" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="4" t="s">
+      <c r="F47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="4">
@@ -3053,10 +3072,10 @@
       <c r="E48" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="F48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="4">
@@ -3088,10 +3107,10 @@
       <c r="E49" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="F49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="4">
@@ -3123,10 +3142,10 @@
       <c r="E50" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="F50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="4">
@@ -3158,10 +3177,10 @@
       <c r="E51" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="4" t="s">
+      <c r="F51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="4">
@@ -3193,10 +3212,10 @@
       <c r="E52" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="4" t="s">
+      <c r="F52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="4">
@@ -3228,10 +3247,10 @@
       <c r="E53" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="4" t="s">
+      <c r="F53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="4">
@@ -3263,10 +3282,10 @@
       <c r="E54" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="4" t="s">
+      <c r="F54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="4">
@@ -3298,10 +3317,10 @@
       <c r="E55" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="F55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="4">
@@ -3333,10 +3352,10 @@
       <c r="E56" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="4" t="s">
+      <c r="F56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="4">
@@ -3368,10 +3387,10 @@
       <c r="E57" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="4" t="s">
+      <c r="F57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="4">
@@ -3403,10 +3422,10 @@
       <c r="E58" s="4">
         <v>3500</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="4" t="s">
+      <c r="F58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H58" s="4">
@@ -3438,10 +3457,10 @@
       <c r="E59" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="4" t="s">
+      <c r="F59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="4">
@@ -3473,10 +3492,10 @@
       <c r="E60" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="4" t="s">
+      <c r="F60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H60" s="4">
@@ -3508,10 +3527,10 @@
       <c r="E61" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="4" t="s">
+      <c r="F61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H61" s="4">
@@ -3543,10 +3562,10 @@
       <c r="E62" s="4">
         <v>215</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="4" t="s">
+      <c r="F62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="4">
@@ -3578,10 +3597,10 @@
       <c r="E63" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="4" t="s">
+      <c r="F63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H63" s="4">
@@ -3613,10 +3632,10 @@
       <c r="E64" s="4">
         <v>6035</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="4" t="s">
+      <c r="F64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="4">
@@ -3648,10 +3667,10 @@
       <c r="E65" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="4" t="s">
+      <c r="F65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="4">
@@ -3683,10 +3702,10 @@
       <c r="E66" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="4" t="s">
+      <c r="F66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H66" s="4">
@@ -3718,10 +3737,10 @@
       <c r="E67" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H67" s="4">
@@ -3753,10 +3772,10 @@
       <c r="E68" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="4">
@@ -3788,10 +3807,10 @@
       <c r="E69" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="4">
@@ -3823,10 +3842,10 @@
       <c r="E70" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H70" s="4">
@@ -3858,10 +3877,10 @@
       <c r="E71" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H71" s="4">
@@ -3893,10 +3912,10 @@
       <c r="E72" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H72" s="4">
@@ -3928,10 +3947,10 @@
       <c r="E73" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H73" s="4">
@@ -3963,10 +3982,10 @@
       <c r="E74" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G74" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H74" s="4">
@@ -3998,10 +4017,10 @@
       <c r="E75" s="4">
         <v>500</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H75" s="4">
@@ -4033,10 +4052,10 @@
       <c r="E76" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H76" s="4">
@@ -4068,10 +4087,10 @@
       <c r="E77" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H77" s="4">
@@ -4103,10 +4122,10 @@
       <c r="E78" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H78" s="4">
@@ -4138,10 +4157,10 @@
       <c r="E79" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="4">
@@ -4173,10 +4192,10 @@
       <c r="E80" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="4">
@@ -4208,10 +4227,10 @@
       <c r="E81" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H81" s="4">
@@ -4243,10 +4262,10 @@
       <c r="E82" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H82" s="4">
@@ -4278,10 +4297,10 @@
       <c r="E83" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G83" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H83" s="4">
@@ -4313,10 +4332,10 @@
       <c r="E84" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H84" s="4">
@@ -4348,10 +4367,10 @@
       <c r="E85" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="4">
@@ -4383,10 +4402,10 @@
       <c r="E86" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G86" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H86" s="4">
@@ -4418,10 +4437,10 @@
       <c r="E87" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H87" s="4">
@@ -4453,10 +4472,10 @@
       <c r="E88" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="4">
@@ -4488,10 +4507,10 @@
       <c r="E89" s="4">
         <v>24500</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G89" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H89" s="4">
@@ -4504,6 +4523,146 @@
         <v>8</v>
       </c>
       <c r="K89" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>8089</v>
+      </c>
+      <c r="B90" s="4">
+        <v>8089</v>
+      </c>
+      <c r="C90" s="4">
+        <v>89</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E90" s="4">
+        <v>9331.86</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="4">
+        <v>13</v>
+      </c>
+      <c r="I90" s="4">
+        <v>1</v>
+      </c>
+      <c r="J90" s="4">
+        <v>8</v>
+      </c>
+      <c r="K90" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>8090</v>
+      </c>
+      <c r="B91" s="4">
+        <v>8090</v>
+      </c>
+      <c r="C91" s="4">
+        <v>90</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E91" s="4">
+        <v>2752.21</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="4">
+        <v>13</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1</v>
+      </c>
+      <c r="J91" s="4">
+        <v>8</v>
+      </c>
+      <c r="K91" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>8091</v>
+      </c>
+      <c r="B92" s="4">
+        <v>8091</v>
+      </c>
+      <c r="C92" s="4">
+        <v>91</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E92" s="4">
+        <v>2752.21</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="4">
+        <v>13</v>
+      </c>
+      <c r="I92" s="4">
+        <v>1</v>
+      </c>
+      <c r="J92" s="4">
+        <v>8</v>
+      </c>
+      <c r="K92" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>8092</v>
+      </c>
+      <c r="B93" s="4">
+        <v>8092</v>
+      </c>
+      <c r="C93" s="4">
+        <v>92</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E93" s="4">
+        <v>3017.7</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="4">
+        <v>13</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1</v>
+      </c>
+      <c r="J93" s="4">
+        <v>8</v>
+      </c>
+      <c r="K93" s="5">
         <v>10</v>
       </c>
     </row>
